--- a/src/data/Indirect_Costs.xlsx
+++ b/src/data/Indirect_Costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2797,120 +2797,6 @@
         <v>313914.18</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Aug-21</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>262654.25</v>
-      </c>
-      <c r="D125" t="n">
-        <v>63342.37</v>
-      </c>
-      <c r="E125" t="n">
-        <v>325996.62</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Aug-21</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>267163.91</v>
-      </c>
-      <c r="D126" t="n">
-        <v>63920.62</v>
-      </c>
-      <c r="E126" t="n">
-        <v>331084.53</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Sep-21</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>255999.16</v>
-      </c>
-      <c r="D127" t="n">
-        <v>66043.87</v>
-      </c>
-      <c r="E127" t="n">
-        <v>322043.03</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Sep-21</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>275901.64</v>
-      </c>
-      <c r="D128" t="n">
-        <v>66691.69</v>
-      </c>
-      <c r="E128" t="n">
-        <v>342593.33</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Oct-21</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>250353.58</v>
-      </c>
-      <c r="D129" t="n">
-        <v>62770.54</v>
-      </c>
-      <c r="E129" t="n">
-        <v>313124.12</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Oct-21</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>274728.78</v>
-      </c>
-      <c r="D130" t="n">
-        <v>62400.44</v>
-      </c>
-      <c r="E130" t="n">
-        <v>337129.22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
